--- a/El mol.xlsx
+++ b/El mol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ariadna\Desktop\Sexto semestre\Experiemental IV\Practicas\Mol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F44028E-1D2B-4066-87F6-DB89FF85E460}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6EDEF6-E57C-4504-826E-11F886EBE74F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{C3D8122A-731D-4D0A-8FAB-1F19F338CF49}"/>
   </bookViews>
@@ -101,16 +101,10 @@
     <t>Masa (g)</t>
   </si>
   <si>
-    <t>Volumen (cm^3)</t>
-  </si>
-  <si>
     <t>Sustancia (1 mol)</t>
   </si>
   <si>
     <t>Azucar</t>
-  </si>
-  <si>
-    <t>Volumen (mm^3)</t>
   </si>
   <si>
     <t>Masa molar(g/mol)</t>
@@ -158,12 +152,64 @@
   <si>
     <t>Error relativo (%)</t>
   </si>
+  <si>
+    <r>
+      <t>Volumen (cm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Volumen (mm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +239,14 @@
     <font>
       <b/>
       <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -617,10 +671,10 @@
         <v>6</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -634,7 +688,7 @@
         <v>342.32600000000002</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1">
         <f>((ABS(C3-D3))/C3)*100</f>
@@ -706,7 +760,7 @@
   <dimension ref="B2:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +772,7 @@
     <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
@@ -726,10 +780,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>19</v>
@@ -741,7 +795,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -765,7 +819,7 @@
         <v>64.986000000000004</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J3" s="4">
         <v>65.38</v>
@@ -792,7 +846,7 @@
         <v>27.123999999999999</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J4" s="4">
         <v>26.981000000000002</v>
@@ -819,7 +873,7 @@
         <v>55.866</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J5" s="4">
         <v>55.844999999999999</v>
@@ -846,24 +900,24 @@
         <v>63.462000000000003</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J6" s="4">
         <v>63.545999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -941,7 +995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A736335A-C90C-4C7A-BE2A-356E9FB8FE96}">
   <dimension ref="B2:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -969,19 +1023,19 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
